--- a/biology/Botanique/Afroboletus/Afroboletus.xlsx
+++ b/biology/Botanique/Afroboletus/Afroboletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afroboletus est un genre de champignons basidiomycètes de la famille des Boletaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuticule sèche, grossièrement fibrilleuse à squameuse, noire, souvent avec des restes du voile appendiculé.
 Hyménium adnexé. Présence d'un voile.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Apparemment limité aux zones tropicales d'Afrique, mais une espèce aberrante est connue dans la péninsule de Malaisie.[réf. nécessaire]
 </t>
@@ -576,7 +592,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycorhizes avec les légumineuses cisalpines; éventuellement avec les Fagaceae ou diptérocarpacées de Malaisie.[réf. nécessaire]
 </t>
@@ -607,7 +625,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Afroboletus azureotinctus
 Afroboletus costatisporus
@@ -616,7 +636,7 @@
 Afroboletus luteolus
 Afroboletus multijugus
 Afroboletus pterosporus
-Selon Catalogue of Life                                   (8 février 2023)[1] :
+Selon Catalogue of Life                                   (8 février 2023) :
 Afroboletus azureotinctus
 Afroboletus costatisporus
 Afroboletus elegans
